--- a/IPC2024_base2010/imputacion/sinrecodificar_3_2024.xlsx
+++ b/IPC2024_base2010/imputacion/sinrecodificar_3_2024.xlsx
@@ -211,12 +211,12 @@
     <t>6123022</t>
   </si>
   <si>
+    <t>13120082</t>
+  </si>
+  <si>
     <t>13120104</t>
   </si>
   <si>
-    <t>13120082</t>
-  </si>
-  <si>
     <t>6111152</t>
   </si>
   <si>
@@ -943,10 +943,10 @@
     <t>Curitas sueltas</t>
   </si>
   <si>
+    <t>Pack de 3 a 4 paquetes (de 40 a 80 unidades) de toallas húmedas para bebés</t>
+  </si>
+  <si>
     <t>Bloqueador de 30 a 50ml, protección solar FPS de 50</t>
-  </si>
-  <si>
-    <t>Pack de 3 a 4 paquetes (de 40 a 80 unidades) de toallas húmedas para bebés</t>
   </si>
   <si>
     <t>Colágeno hidrolizado y glucosamina</t>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -2754,7 +2754,7 @@
         <v>310</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:4">

--- a/IPC2024_base2010/imputacion/sinrecodificar_3_2024.xlsx
+++ b/IPC2024_base2010/imputacion/sinrecodificar_3_2024.xlsx
@@ -211,12 +211,12 @@
     <t>6123022</t>
   </si>
   <si>
+    <t>13120104</t>
+  </si>
+  <si>
     <t>13120082</t>
   </si>
   <si>
-    <t>13120104</t>
-  </si>
-  <si>
     <t>6111152</t>
   </si>
   <si>
@@ -943,10 +943,10 @@
     <t>Curitas sueltas</t>
   </si>
   <si>
+    <t>Bloqueador de 30 a 50ml, protección solar FPS de 50</t>
+  </si>
+  <si>
     <t>Pack de 3 a 4 paquetes (de 40 a 80 unidades) de toallas húmedas para bebés</t>
-  </si>
-  <si>
-    <t>Bloqueador de 30 a 50ml, protección solar FPS de 50</t>
   </si>
   <si>
     <t>Colágeno hidrolizado y glucosamina</t>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -2754,7 +2754,7 @@
         <v>310</v>
       </c>
       <c r="D65">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:4">

--- a/IPC2024_base2010/imputacion/sinrecodificar_3_2024.xlsx
+++ b/IPC2024_base2010/imputacion/sinrecodificar_3_2024.xlsx
@@ -1477,7 +1477,7 @@
     <t>Pants para educación física</t>
   </si>
   <si>
-    <t>Alquiler de vehículo por día, kilometraje ilimitado</t>
+    <t>Alquiler de vehículo por día (kilometraje)</t>
   </si>
   <si>
     <t>Chumpas para educación física</t>
